--- a/kerjaan/cuti-msj/tambahan/Uang Tiket.xlsx
+++ b/kerjaan/cuti-msj/tambahan/Uang Tiket.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myJOB\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\kerjaan\cuti-msj\tambahan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C039F102-A06D-4413-BF7B-14C0F413E7DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B322F4D7-8444-4813-A872-87C5DAE3A720}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{526E0BBA-8184-452C-848D-2A0FC4EB1ACA}"/>
   </bookViews>
@@ -26,12 +26,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -113,7 +107,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -185,39 +179,39 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0] 2" xfId="2" xr:uid="{0D3086E2-E8D9-4254-AD6A-EF3DDB4EF164}"/>
@@ -567,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6B930B1-3FEC-4AE1-8260-8EC6251DA828}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -576,632 +570,632 @@
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="3"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>961700</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>1923400</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>150000</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>150000</v>
       </c>
+      <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>2073400</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>0.15</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>-311010</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="10">
         <v>1762390</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="11">
         <v>1634890</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="11">
         <v>1634890</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="11">
         <v>1634890</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="11">
         <v>1634890</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="12">
         <v>8301950</v>
       </c>
-      <c r="O9" s="9"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="15"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="D10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="13"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="15"/>
-      <c r="I11" s="16" t="s">
+      <c r="D11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="13"/>
+      <c r="I11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="15"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
+      <c r="D12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="13"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I13" s="18">
+      <c r="I13" s="16">
         <v>3397280</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="16">
         <v>5032170</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="16">
         <v>6667060</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="16">
         <v>8301950</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>2052500</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <v>2052500</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>150000</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <v>150000</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <v>2202500</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>0.15</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="6">
         <v>-330375</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="10">
         <v>1872125</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="15">
         <v>1744625</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="15">
         <v>1744625</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="15">
         <v>1744625</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="15">
         <v>1744625</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="15"/>
+      <c r="D19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="15"/>
-      <c r="I20" s="16" t="s">
+      <c r="D20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="13"/>
+      <c r="I20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="16" t="s">
+      <c r="J20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="15"/>
+      <c r="D21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I22" s="18">
+      <c r="I22" s="16">
         <v>3616750</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="16">
         <v>5361375</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="16">
         <v>7106000</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="16">
         <v>8850625</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>837700</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <v>1675400</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>150000</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="6">
         <v>150000</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G25" s="7">
+      <c r="G25" s="5">
         <v>1825400</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="9">
         <v>0.15</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
         <v>-273810</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="10">
         <v>1551590</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="15">
         <v>1424090</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="15">
         <v>1424090</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="15">
         <v>1424090</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="15">
         <v>1424090</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="15"/>
+      <c r="D28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="15"/>
-      <c r="I29" s="16" t="s">
+      <c r="D29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="13"/>
+      <c r="I29" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="16" t="s">
+      <c r="J29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L29" s="16" t="s">
+      <c r="L29" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="15"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="15"/>
-      <c r="I31" s="18">
+      <c r="D31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="13"/>
+      <c r="I31" s="16">
         <v>2975680</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="16">
         <v>4399770</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="16">
         <v>5823860</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L31" s="16">
         <v>7247950</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="5">
         <v>749600</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="5">
         <v>1499200</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="5">
         <v>150000</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="6">
         <v>150000</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G35" s="7">
+      <c r="G35" s="5">
         <v>1649200</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="9">
         <v>0.15</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="6">
         <v>-247380</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="10">
         <v>1401820</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="15">
         <v>1274320</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="15">
         <v>1274320</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="15">
         <v>1274320</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37" s="15">
         <v>1274320</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="15"/>
+      <c r="D38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="15"/>
-      <c r="I39" s="16" t="s">
+      <c r="D39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="13"/>
+      <c r="I39" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J39" s="16" t="s">
+      <c r="J39" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="K39" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L39" s="16" t="s">
+      <c r="L39" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="15"/>
+      <c r="D40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="13"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I41" s="18">
+      <c r="I41" s="16">
         <v>2676140</v>
       </c>
-      <c r="J41" s="18">
+      <c r="J41" s="16">
         <v>3950460</v>
       </c>
-      <c r="K41" s="18">
+      <c r="K41" s="16">
         <v>5224780</v>
       </c>
-      <c r="L41" s="18">
+      <c r="L41" s="16">
         <v>6499100</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="5">
         <v>2052500</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="5">
         <v>2052500</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="5">
         <v>150000</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="17">
         <v>150000</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="5">
         <v>200000</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="6">
         <v>200000</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G45" s="7">
+      <c r="G45" s="5">
         <v>2402500</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="9">
         <v>0.15</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="6">
         <v>-360375</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="10">
         <v>2042125</v>
       </c>
     </row>
     <row r="49" spans="9:12" x14ac:dyDescent="0.2">
-      <c r="I49" s="16" t="s">
+      <c r="I49" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J49" s="16" t="s">
+      <c r="J49" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="16" t="s">
+      <c r="K49" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L49" s="16" t="s">
+      <c r="L49" s="14" t="s">
         <v>18</v>
       </c>
     </row>
